--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Gm13306-Ackr2.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Gm13306-Ackr2.xlsx
@@ -531,16 +531,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>0.1181316666666666</v>
+        <v>0.1181316666666667</v>
       </c>
       <c r="H2">
         <v>0.354395</v>
       </c>
       <c r="I2">
-        <v>0.2999062356666661</v>
+        <v>0.1921951611040097</v>
       </c>
       <c r="J2">
-        <v>0.2999062356666661</v>
+        <v>0.1921951611040097</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -561,16 +561,16 @@
         <v>1</v>
       </c>
       <c r="Q2">
-        <v>0.06460486967444444</v>
+        <v>0.06460486967444445</v>
       </c>
       <c r="R2">
         <v>0.58144382707</v>
       </c>
       <c r="S2">
-        <v>0.2999062356666661</v>
+        <v>0.1921951611040097</v>
       </c>
       <c r="T2">
-        <v>0.2999062356666661</v>
+        <v>0.1921951611040097</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,16 +593,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.2757636666666667</v>
+        <v>0.4965126666666667</v>
       </c>
       <c r="H3">
-        <v>0.8272910000000001</v>
+        <v>1.489538</v>
       </c>
       <c r="I3">
-        <v>0.7000937643333339</v>
+        <v>0.8078048388959902</v>
       </c>
       <c r="J3">
-        <v>0.700093764333334</v>
+        <v>0.8078048388959903</v>
       </c>
       <c r="K3">
         <v>2</v>
@@ -623,16 +623,16 @@
         <v>1</v>
       </c>
       <c r="Q3">
-        <v>0.1508120239784445</v>
+        <v>0.2715371502564444</v>
       </c>
       <c r="R3">
-        <v>1.357308215806</v>
+        <v>2.443834352308</v>
       </c>
       <c r="S3">
-        <v>0.7000937643333339</v>
+        <v>0.8078048388959902</v>
       </c>
       <c r="T3">
-        <v>0.700093764333334</v>
+        <v>0.8078048388959903</v>
       </c>
     </row>
   </sheetData>
